--- a/fighting-fantasy/checklist.xlsx
+++ b/fighting-fantasy/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fighting-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAB3A5B-D1FA-D940-9BDD-733A4E64C706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AA3848-E6D1-8244-A1EB-66B28513D1F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FF4FE774-4AD2-5046-A9A2-C328E8B173B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -155,9 +155,6 @@
     <t>火吹山の魔法使い</t>
   </si>
   <si>
-    <t>The Warlock of Firetop Mountain[1</t>
-  </si>
-  <si>
     <t>The Citadel of Chaos</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>The Warlock of Firetop Mountain</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +752,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -769,10 +769,10 @@
         <v>1985</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -789,10 +789,10 @@
         <v>1985</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -809,10 +809,10 @@
         <v>1985</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -829,10 +829,10 @@
         <v>1985</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -849,10 +849,10 @@
         <v>1985</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -866,13 +866,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -889,10 +889,10 @@
         <v>1986</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -909,10 +909,10 @@
         <v>1986</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -929,10 +929,10 @@
         <v>1986</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -949,10 +949,10 @@
         <v>1986</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -969,10 +969,10 @@
         <v>1986</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -989,10 +989,10 @@
         <v>1986</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -1009,10 +1009,10 @@
         <v>1987</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -1029,10 +1029,10 @@
         <v>1987</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -1049,10 +1049,10 @@
         <v>1987</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -1069,10 +1069,10 @@
         <v>1987</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -1089,10 +1089,10 @@
         <v>1987</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -1109,10 +1109,10 @@
         <v>1987</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -1129,10 +1129,10 @@
         <v>1987</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -1149,10 +1149,10 @@
         <v>1987</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
@@ -1169,10 +1169,10 @@
         <v>1987</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -1189,10 +1189,10 @@
         <v>1987</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -1209,10 +1209,10 @@
         <v>1988</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -1229,10 +1229,10 @@
         <v>1988</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -1249,10 +1249,10 @@
         <v>1988</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>38</v>
@@ -1269,10 +1269,10 @@
         <v>1988</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -1289,10 +1289,10 @@
         <v>1989</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -1309,10 +1309,10 @@
         <v>1989</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -1329,10 +1329,10 @@
         <v>1989</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
@@ -1349,10 +1349,10 @@
         <v>1989</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
@@ -1369,10 +1369,10 @@
         <v>1990</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -1389,10 +1389,10 @@
         <v>1991</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>

--- a/fighting-fantasy/checklist.xlsx
+++ b/fighting-fantasy/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fighting-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99AA3848-E6D1-8244-A1EB-66B28513D1F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77783BCF-4076-B04C-A7EB-4B4ACC5A5B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FF4FE774-4AD2-5046-A9A2-C328E8B173B1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>year</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>死のワナの地下迷宮</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>The Warlock of Firetop Mountain</t>
@@ -714,7 +711,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +749,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -865,8 +862,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>104</v>
+      <c r="B8">
+        <v>1985</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>

--- a/fighting-fantasy/checklist.xlsx
+++ b/fighting-fantasy/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fighting-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77783BCF-4076-B04C-A7EB-4B4ACC5A5B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C62084-5EC7-7B4E-89AD-16F70732F86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FF4FE774-4AD2-5046-A9A2-C328E8B173B1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>year</t>
   </si>
@@ -149,9 +149,6 @@
     <t>33.jpg</t>
   </si>
   <si>
-    <t>社会思想社</t>
-  </si>
-  <si>
     <t>火吹山の魔法使い</t>
   </si>
   <si>
@@ -348,6 +345,15 @@
   </si>
   <si>
     <t>The Warlock of Firetop Mountain</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>gamebook</t>
+  </si>
+  <si>
+    <t>Shakaishisosha</t>
   </si>
 </sst>
 </file>
@@ -708,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E3C134-2279-5745-865F-E280D537D729}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E2" sqref="E2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,7 +727,7 @@
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,8 +743,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -746,19 +755,22 @@
         <v>1984</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -766,19 +778,22 @@
         <v>1985</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -786,19 +801,22 @@
         <v>1985</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -806,19 +824,22 @@
         <v>1985</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -826,19 +847,22 @@
         <v>1985</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -846,19 +870,22 @@
         <v>1985</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -866,19 +893,22 @@
         <v>1985</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -886,19 +916,22 @@
         <v>1986</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -906,19 +939,22 @@
         <v>1986</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -926,19 +962,22 @@
         <v>1986</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -946,19 +985,22 @@
         <v>1986</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -966,19 +1008,22 @@
         <v>1986</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -986,19 +1031,22 @@
         <v>1986</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1006,19 +1054,22 @@
         <v>1987</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1026,19 +1077,22 @@
         <v>1987</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1046,19 +1100,22 @@
         <v>1987</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1066,19 +1123,22 @@
         <v>1987</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1086,19 +1146,22 @@
         <v>1987</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1106,19 +1169,22 @@
         <v>1987</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1126,19 +1192,22 @@
         <v>1987</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1146,19 +1215,22 @@
         <v>1987</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1166,19 +1238,22 @@
         <v>1987</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1186,19 +1261,22 @@
         <v>1987</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1206,19 +1284,22 @@
         <v>1988</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1226,19 +1307,22 @@
         <v>1988</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1246,19 +1330,22 @@
         <v>1988</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1266,19 +1353,22 @@
         <v>1988</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1286,19 +1376,22 @@
         <v>1989</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1306,19 +1399,22 @@
         <v>1989</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1326,19 +1422,22 @@
         <v>1989</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1346,19 +1445,22 @@
         <v>1989</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1366,19 +1468,22 @@
         <v>1990</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1386,16 +1491,19 @@
         <v>1991</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/fighting-fantasy/checklist.xlsx
+++ b/fighting-fantasy/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/fighting-fantasy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C62084-5EC7-7B4E-89AD-16F70732F86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C67E95-1A95-5845-9446-EBD6E43B68ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{FF4FE774-4AD2-5046-A9A2-C328E8B173B1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{FF4FE774-4AD2-5046-A9A2-C328E8B173B1}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>year</t>
   </si>
@@ -354,6 +354,18 @@
   </si>
   <si>
     <t>Shakaishisosha</t>
+  </si>
+  <si>
+    <t>王子の対決</t>
+  </si>
+  <si>
+    <t>Clash of Princes</t>
+  </si>
+  <si>
+    <t>clash-of-princes.jpg</t>
+  </si>
+  <si>
+    <t>slipcase set</t>
   </si>
 </sst>
 </file>
@@ -714,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E3C134-2279-5745-865F-E280D537D729}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E34"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,6 +737,7 @@
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
     <col min="4" max="4" width="49.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1506,6 +1519,26 @@
         <v>105</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1987</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
